--- a/data/data_inventory.xlsx
+++ b/data/data_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regi350/OneDrive - PNNL/Documents/GitHub/peterregier/d50_computer_vision/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/peterregier/d50_computer_vision/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DBDA81-B906-2548-979E-95F8B869DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="820" windowWidth="32040" windowHeight="19960" xr2:uid="{BF9EDC44-8173-C24D-B2E0-2D520D202F9D}"/>
+    <workbookView xWindow="1920" yWindow="800" windowWidth="32040" windowHeight="19960" xr2:uid="{BF9EDC44-8173-C24D-B2E0-2D520D202F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,9 +385,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -409,7 +408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -697,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,7 +707,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +940,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
@@ -967,7 +966,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
@@ -1037,15 +1036,15 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
     </row>
